--- a/7/1/1/3/1/Series originales 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/3/1/Series originales 1996 a 2021 - Anual.xlsx
@@ -725,6 +725,12 @@
       <c r="Z2">
         <v>2927</v>
       </c>
+      <c r="AA2">
+        <v>1440</v>
+      </c>
+      <c r="AB2">
+        <v>1487</v>
+      </c>
       <c r="AC2">
         <v>3109</v>
       </c>
@@ -733,6 +739,9 @@
       </c>
       <c r="AE2">
         <v>1355</v>
+      </c>
+      <c r="AF2">
+        <v>29186</v>
       </c>
       <c r="AG2">
         <v>2309</v>
@@ -805,6 +814,12 @@
       <c r="Z3">
         <v>3358</v>
       </c>
+      <c r="AA3">
+        <v>1643</v>
+      </c>
+      <c r="AB3">
+        <v>1715</v>
+      </c>
       <c r="AC3">
         <v>3471</v>
       </c>
@@ -813,6 +828,9 @@
       </c>
       <c r="AE3">
         <v>1553</v>
+      </c>
+      <c r="AF3">
+        <v>32410</v>
       </c>
       <c r="AG3">
         <v>2457</v>
@@ -885,6 +903,12 @@
       <c r="Z4">
         <v>3687</v>
       </c>
+      <c r="AA4">
+        <v>1571</v>
+      </c>
+      <c r="AB4">
+        <v>2116</v>
+      </c>
       <c r="AC4">
         <v>3373</v>
       </c>
@@ -893,6 +917,9 @@
       </c>
       <c r="AE4">
         <v>1708</v>
+      </c>
+      <c r="AF4">
+        <v>33956</v>
       </c>
       <c r="AG4">
         <v>2751</v>
@@ -965,6 +992,12 @@
       <c r="Z5">
         <v>3862</v>
       </c>
+      <c r="AA5">
+        <v>1567</v>
+      </c>
+      <c r="AB5">
+        <v>2295</v>
+      </c>
       <c r="AC5">
         <v>3285</v>
       </c>
@@ -973,6 +1006,9 @@
       </c>
       <c r="AE5">
         <v>1901</v>
+      </c>
+      <c r="AF5">
+        <v>34766</v>
       </c>
       <c r="AG5">
         <v>2850</v>
@@ -1045,6 +1081,12 @@
       <c r="Z6">
         <v>4575</v>
       </c>
+      <c r="AA6">
+        <v>1919</v>
+      </c>
+      <c r="AB6">
+        <v>2656</v>
+      </c>
       <c r="AC6">
         <v>3324</v>
       </c>
@@ -1053,6 +1095,9 @@
       </c>
       <c r="AE6">
         <v>2022</v>
+      </c>
+      <c r="AF6">
+        <v>38181</v>
       </c>
       <c r="AG6">
         <v>3128</v>
@@ -1125,6 +1170,12 @@
       <c r="Z7">
         <v>5121</v>
       </c>
+      <c r="AA7">
+        <v>2171</v>
+      </c>
+      <c r="AB7">
+        <v>2950</v>
+      </c>
       <c r="AC7">
         <v>3612</v>
       </c>
@@ -1133,6 +1184,9 @@
       </c>
       <c r="AE7">
         <v>2120</v>
+      </c>
+      <c r="AF7">
+        <v>41055</v>
       </c>
       <c r="AG7">
         <v>3354</v>
@@ -1205,6 +1259,12 @@
       <c r="Z8">
         <v>5579</v>
       </c>
+      <c r="AA8">
+        <v>2295</v>
+      </c>
+      <c r="AB8">
+        <v>3284</v>
+      </c>
       <c r="AC8">
         <v>3755</v>
       </c>
@@ -1213,6 +1273,9 @@
       </c>
       <c r="AE8">
         <v>2186</v>
+      </c>
+      <c r="AF8">
+        <v>43687</v>
       </c>
       <c r="AG8">
         <v>3717</v>
@@ -1285,6 +1348,12 @@
       <c r="Z9">
         <v>5878</v>
       </c>
+      <c r="AA9">
+        <v>2216</v>
+      </c>
+      <c r="AB9">
+        <v>3662</v>
+      </c>
       <c r="AC9">
         <v>3984</v>
       </c>
@@ -1293,6 +1362,9 @@
       </c>
       <c r="AE9">
         <v>2254</v>
+      </c>
+      <c r="AF9">
+        <v>47903</v>
       </c>
       <c r="AG9">
         <v>3889</v>
@@ -1365,6 +1437,12 @@
       <c r="Z10">
         <v>6884</v>
       </c>
+      <c r="AA10">
+        <v>2480</v>
+      </c>
+      <c r="AB10">
+        <v>4404</v>
+      </c>
       <c r="AC10">
         <v>4216</v>
       </c>
@@ -1373,6 +1451,9 @@
       </c>
       <c r="AE10">
         <v>2424</v>
+      </c>
+      <c r="AF10">
+        <v>55506</v>
       </c>
       <c r="AG10">
         <v>4513</v>
@@ -1445,6 +1526,12 @@
       <c r="Z11">
         <v>7902</v>
       </c>
+      <c r="AA11">
+        <v>2646</v>
+      </c>
+      <c r="AB11">
+        <v>5256</v>
+      </c>
       <c r="AC11">
         <v>4656</v>
       </c>
@@ -1453,6 +1540,9 @@
       </c>
       <c r="AE11">
         <v>2731</v>
+      </c>
+      <c r="AF11">
+        <v>62990</v>
       </c>
       <c r="AG11">
         <v>5318</v>
@@ -1525,6 +1615,12 @@
       <c r="Z12">
         <v>9360</v>
       </c>
+      <c r="AA12">
+        <v>2971</v>
+      </c>
+      <c r="AB12">
+        <v>6390</v>
+      </c>
       <c r="AC12">
         <v>5018</v>
       </c>
@@ -1533,6 +1629,9 @@
       </c>
       <c r="AE12">
         <v>3011</v>
+      </c>
+      <c r="AF12">
+        <v>75673</v>
       </c>
       <c r="AG12">
         <v>5835</v>
@@ -1605,6 +1704,12 @@
       <c r="Z13">
         <v>11386</v>
       </c>
+      <c r="AA13">
+        <v>3909</v>
+      </c>
+      <c r="AB13">
+        <v>7477</v>
+      </c>
       <c r="AC13">
         <v>5704</v>
       </c>
@@ -1613,6 +1718,9 @@
       </c>
       <c r="AE13">
         <v>3320</v>
+      </c>
+      <c r="AF13">
+        <v>83577</v>
       </c>
       <c r="AG13">
         <v>6440</v>
@@ -1685,6 +1793,12 @@
       <c r="Z14">
         <v>13269</v>
       </c>
+      <c r="AA14">
+        <v>4682</v>
+      </c>
+      <c r="AB14">
+        <v>8586</v>
+      </c>
       <c r="AC14">
         <v>6341</v>
       </c>
@@ -1693,6 +1807,9 @@
       </c>
       <c r="AE14">
         <v>3811</v>
+      </c>
+      <c r="AF14">
+        <v>85894</v>
       </c>
       <c r="AG14">
         <v>7387</v>
@@ -1765,6 +1882,12 @@
       <c r="Z15">
         <v>14580</v>
       </c>
+      <c r="AA15">
+        <v>4981</v>
+      </c>
+      <c r="AB15">
+        <v>9599</v>
+      </c>
       <c r="AC15">
         <v>6274</v>
       </c>
@@ -1773,6 +1896,9 @@
       </c>
       <c r="AE15">
         <v>4398</v>
+      </c>
+      <c r="AF15">
+        <v>89082</v>
       </c>
       <c r="AG15">
         <v>7174</v>
@@ -1845,6 +1971,12 @@
       <c r="Z16">
         <v>15515</v>
       </c>
+      <c r="AA16">
+        <v>5223</v>
+      </c>
+      <c r="AB16">
+        <v>10292</v>
+      </c>
       <c r="AC16">
         <v>7084</v>
       </c>
@@ -1853,6 +1985,9 @@
       </c>
       <c r="AE16">
         <v>4844</v>
+      </c>
+      <c r="AF16">
+        <v>102688</v>
       </c>
       <c r="AG16">
         <v>8194</v>
@@ -1925,6 +2060,12 @@
       <c r="Z17">
         <v>17965</v>
       </c>
+      <c r="AA17">
+        <v>5925</v>
+      </c>
+      <c r="AB17">
+        <v>12040</v>
+      </c>
       <c r="AC17">
         <v>8002</v>
       </c>
@@ -1933,6 +2074,9 @@
       </c>
       <c r="AE17">
         <v>5136</v>
+      </c>
+      <c r="AF17">
+        <v>112075</v>
       </c>
       <c r="AG17">
         <v>9348</v>
@@ -2005,6 +2149,12 @@
       <c r="Z18">
         <v>19825</v>
       </c>
+      <c r="AA18">
+        <v>6120</v>
+      </c>
+      <c r="AB18">
+        <v>13705</v>
+      </c>
       <c r="AC18">
         <v>8854</v>
       </c>
@@ -2013,6 +2163,9 @@
       </c>
       <c r="AE18">
         <v>5615</v>
+      </c>
+      <c r="AF18">
+        <v>118873</v>
       </c>
       <c r="AG18">
         <v>10361</v>
